--- a/Data Cleaning Files.xlsx
+++ b/Data Cleaning Files.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29F4793-C23E-4AA6-B7CD-F777F2426D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C387371-DE1A-4F78-A422-2ACE7071140E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{B750E666-42D8-48C9-AB1C-E34AE7232F24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{B750E666-42D8-48C9-AB1C-E34AE7232F24}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Assignment" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Test" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Data Classwork" sheetId="3" r:id="rId3"/>
-    <sheet name="Data Classwork (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Data Test" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Data Classwork" sheetId="3" r:id="rId2"/>
+    <sheet name="Data Classwork (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Data Assignment" sheetId="1" r:id="rId4"/>
+    <sheet name="Data Assignment (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Classwork'!$B$2:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Data Assignment (2)'!$A$1:$G$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Classwork'!$B$2:$J$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="406">
   <si>
     <t>S.No.</t>
   </si>
@@ -1042,6 +1044,213 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>James Monroe</t>
+  </si>
+  <si>
+    <t>William Mckinley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commander-in-Chief  of the  Continental Army   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5th  United States Secretary of State   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7th  United States Secretary of State   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8th  United States Secretary of State   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Minister to Colombia   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9th  Governor of Tennessee   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major General  of the  1st Infantry Regiment   United States Army   </t>
+  </si>
+  <si>
+    <t>1846â€“1849)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brigadier General  of the  9th Infantry   United States Army   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Minister  to the   Court of St James's   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Representative  for  Illinois' 7th District   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commanding General  of the U.S. Army   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29th &amp; 32nd  Governor of Ohio   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Representative  for  Ohio's 19th District   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28th  Governor of New York   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22nd  President of the United States   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39th  Governor of Ohio   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42nd  United States Secretary of War   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34th  Governor of New Jersey   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd  United States Secretary of Commerce   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44th  Governor of New York   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supreme Allied Commander Europe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36th  Vice President of the United States   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76th  Governor of Georgia   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33rd  Governor of California   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th &amp; 42nd  Governor of Arkansas   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46th  Governor of Texas   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman of   The Trump Organization   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1971â€“present )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Senator    Class 2 )   from  Tennessee  </t>
+  </si>
+  <si>
+    <t>U.S. Senator    Class 1 )   from  Indiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Senator    Class 3 )   from  Ohio   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Senator    Class 1 )   from  Massachusetts   </t>
+  </si>
+  <si>
+    <t>U.S. Senator   1953â€“1960)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Senator   Class 3 )   from  Illinois  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">year </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1775â€“1783 )</t>
+  </si>
+  <si>
+    <t>(1801â€“1809)</t>
+  </si>
+  <si>
+    <t>(1811â€“1817)</t>
+  </si>
+  <si>
+    <t>(1817â€“1825)</t>
+  </si>
+  <si>
+    <t>(1823â€“1825)</t>
+  </si>
+  <si>
+    <t>(1828â€“1829)</t>
+  </si>
+  <si>
+    <t>(1839â€“1841)</t>
+  </si>
+  <si>
+    <t>(1847â€“1848)</t>
+  </si>
+  <si>
+    <t>(1853â€“1856)</t>
+  </si>
+  <si>
+    <t>(1847â€“1849)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1864â€“1869 )</t>
+  </si>
+  <si>
+    <t>(1868â€“1872 &amp; 1876â€“1877)</t>
+  </si>
+  <si>
+    <t>(1863â€“1881)</t>
+  </si>
+  <si>
+    <t>(1883â€“1885)</t>
+  </si>
+  <si>
+    <t>(1881â€“1887)</t>
+  </si>
+  <si>
+    <t>(1885â€“1889)</t>
+  </si>
+  <si>
+    <t>(1892â€“1896)</t>
+  </si>
+  <si>
+    <t>(1904â€“1908)</t>
+  </si>
+  <si>
+    <t>(1911â€“1913)</t>
+  </si>
+  <si>
+    <t>(1915â€“1921</t>
+  </si>
+  <si>
+    <t>(1921â€“1928)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1929â€“1932 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1949â€“1952 )</t>
+  </si>
+  <si>
+    <t>(1953â€“1960)</t>
+  </si>
+  <si>
+    <t>(1953â€“1961)</t>
+  </si>
+  <si>
+    <t>(1971â€“1975)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1967â€“1975 )</t>
+  </si>
+  <si>
+    <t>(1979â€“1981 &amp; 1983â€“1992)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1995â€“2000 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2005â€“2008 )</t>
+  </si>
+  <si>
+    <t>( 2005â€“2008 )</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1371,16 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{F069D039-41CA-4BAB-93CE-1C253F780D15}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1225,19 +1443,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97668F6E-B962-4655-B310-5ADF20CB4DCF}" name="Table1" displayName="Table1" ref="B2:J31" totalsRowShown="0">
   <autoFilter ref="B2:J31" xr:uid="{0EFCD4AF-7860-4315-99EC-BADFD312FD11}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B12E1354-8AD4-4B20-A805-8A7B12554339}" name="Date" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{FB502648-0C60-4566-84E8-BA69DFA6D340}" name="client " dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{16F1A016-7A1F-4602-96E5-5C683BB14AB3}" name="contact" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{C9D6CD31-7147-4EA1-A97A-05D7B9D4C4D3}" name="Department" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{AB78FEFB-BB0A-4618-A7AC-7D2C6ACDA151}" name="Region/State" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{F19F12F6-2105-43F7-AA52-3C328DFE6EEA}" name="Payment" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7327706F-AF8E-4F5F-B8B3-70DDD97D3674}" name="Revenue" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{DE684629-D134-46A5-8E90-2A7DBAF6F930}" name="Profit" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{2B0ECDCE-1BA3-4215-B853-2434F9A6FCA3}" name="Profit Margin" dataDxfId="0" dataCellStyle="Percent 2">
+    <tableColumn id="1" xr3:uid="{B12E1354-8AD4-4B20-A805-8A7B12554339}" name="Date" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{FB502648-0C60-4566-84E8-BA69DFA6D340}" name="client " dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{16F1A016-7A1F-4602-96E5-5C683BB14AB3}" name="contact" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{C9D6CD31-7147-4EA1-A97A-05D7B9D4C4D3}" name="Department" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{AB78FEFB-BB0A-4618-A7AC-7D2C6ACDA151}" name="Region/State" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{F19F12F6-2105-43F7-AA52-3C328DFE6EEA}" name="Payment" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7327706F-AF8E-4F5F-B8B3-70DDD97D3674}" name="Revenue" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{DE684629-D134-46A5-8E90-2A7DBAF6F930}" name="Profit" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{2B0ECDCE-1BA3-4215-B853-2434F9A6FCA3}" name="Profit Margin" dataDxfId="3" dataCellStyle="Percent 2">
       <calculatedColumnFormula>IFERROR(I3/H3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB5803DE-58E0-42CE-885C-09D440F15EC8}" name="Table2" displayName="Table2" ref="A1:G47" totalsRowShown="0">
+  <autoFilter ref="A1:G47" xr:uid="{94CC4B9D-86D0-4438-8522-97B702A1BA8E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{56BEA3F4-A7CD-4E6B-B595-C6EA34701397}" name="S.No."/>
+    <tableColumn id="2" xr3:uid="{3C8C9D1D-3957-4683-AC65-F691EC211A61}" name="president"/>
+    <tableColumn id="3" xr3:uid="{C23B2D12-1CE2-4F51-BDB9-FF8FDADEDF94}" name="prior"/>
+    <tableColumn id="4" xr3:uid="{46560E7C-D278-4BAD-A0BD-DEC405AE434F}" name="year "/>
+    <tableColumn id="5" xr3:uid="{5CD88EF5-6235-485F-B69D-DAB3B6165329}" name="salary" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{6F449B3F-DF66-4442-BD97-2FD2D079BB68}" name="date updated" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{3E053A7B-5B6B-4FD3-9E9D-C98A98536E09}" name="date created" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1557,1416 +1791,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5744450C-A2CE-48AC-A216-0BAA36BCE033}">
-  <dimension ref="A1:I48"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="67.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I2" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I3" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2">
-        <v>15000</v>
-      </c>
-      <c r="H4" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I4" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2">
-        <v>20000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I5" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2">
-        <v>25000</v>
-      </c>
-      <c r="H6" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I6" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2">
-        <v>30000</v>
-      </c>
-      <c r="H7" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I7" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2">
-        <v>35000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I8" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2">
-        <v>40000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I9" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I10" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H11" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I11" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="2">
-        <v>55000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I12" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2">
-        <v>60000</v>
-      </c>
-      <c r="H13" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I13" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="2">
-        <v>65000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I14" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="2">
-        <v>75000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I15" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="2">
-        <v>85000</v>
-      </c>
-      <c r="H16" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I16" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="2">
-        <v>95000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I17" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="2">
-        <v>105000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I18" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="2">
-        <v>115000</v>
-      </c>
-      <c r="H19" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I19" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="2">
-        <v>125000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I20" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="2">
-        <v>135000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I21" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="2">
-        <v>145000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I22" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="2">
-        <v>155000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I23" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="2">
-        <v>165000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I24" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="2">
-        <v>175000</v>
-      </c>
-      <c r="H25" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I25" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="2">
-        <v>185000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I26" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="2">
-        <v>195000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I27" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="2">
-        <v>205000</v>
-      </c>
-      <c r="H28" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I28" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="2">
-        <v>225000</v>
-      </c>
-      <c r="H29" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I29" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="2">
-        <v>225000</v>
-      </c>
-      <c r="H30" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I30" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="2">
-        <v>235000</v>
-      </c>
-      <c r="H31" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I31" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="2">
-        <v>245000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I32" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="2">
-        <v>255000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I33" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="2">
-        <v>265000</v>
-      </c>
-      <c r="H34" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I34" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="2">
-        <v>275000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I35" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="2">
-        <v>285000</v>
-      </c>
-      <c r="H36" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I36" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="2">
-        <v>295000</v>
-      </c>
-      <c r="H37" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I37" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="2">
-        <v>305000</v>
-      </c>
-      <c r="H38" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I38" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="2">
-        <v>315000</v>
-      </c>
-      <c r="H39" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I39" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="2">
-        <v>325000</v>
-      </c>
-      <c r="H40" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I40" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="2">
-        <v>335000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I41" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="2">
-        <v>345000</v>
-      </c>
-      <c r="H42" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I42" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="2">
-        <v>355000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I43" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="2">
-        <v>365000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I44" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="2">
-        <v>375000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I45" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="2">
-        <v>395000</v>
-      </c>
-      <c r="H46" s="4">
-        <v>44391</v>
-      </c>
-      <c r="I46" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>43</v>
-      </c>
-      <c r="B47">
-        <v>44</v>
-      </c>
-      <c r="C47" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" s="2">
-        <v>395000</v>
-      </c>
-      <c r="H47" s="4">
-        <v>44391</v>
-      </c>
-      <c r="I47" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>44</v>
-      </c>
-      <c r="B48">
-        <v>45</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" t="s">
-        <v>135</v>
-      </c>
-      <c r="F48" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" s="2">
-        <v>405000</v>
-      </c>
-      <c r="H48" s="4">
-        <v>44391</v>
-      </c>
-      <c r="I48" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42340A1A-D977-4960-8F53-76AF2957B0E8}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -3815,11 +2639,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFCD4AF-7860-4315-99EC-BADFD312FD11}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -4788,7 +3612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA81F10-4451-4C82-BA81-8F6D590E1594}">
   <dimension ref="B2:I42"/>
   <sheetViews>
@@ -5692,4 +4516,2521 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5744450C-A2CE-48AC-A216-0BAA36BCE033}">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="67.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I2" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I3" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I4" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I5" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I6" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I7" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I8" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I9" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I10" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I11" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2">
+        <v>55000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I12" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I13" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2">
+        <v>65000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I14" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2">
+        <v>75000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I15" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H16" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I16" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2">
+        <v>95000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I17" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2">
+        <v>105000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I18" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="2">
+        <v>115000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I19" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="2">
+        <v>125000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I20" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="2">
+        <v>135000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I21" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="2">
+        <v>145000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I22" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2">
+        <v>155000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I23" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="2">
+        <v>165000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I24" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="2">
+        <v>175000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I25" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="2">
+        <v>185000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I26" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="2">
+        <v>195000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I27" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="2">
+        <v>205000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I28" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="2">
+        <v>225000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I29" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="2">
+        <v>225000</v>
+      </c>
+      <c r="H30" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I30" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="2">
+        <v>235000</v>
+      </c>
+      <c r="H31" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I31" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="2">
+        <v>245000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I32" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="2">
+        <v>255000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I33" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="2">
+        <v>265000</v>
+      </c>
+      <c r="H34" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I34" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="2">
+        <v>275000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I35" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="2">
+        <v>285000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I36" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="2">
+        <v>295000</v>
+      </c>
+      <c r="H37" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I37" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="2">
+        <v>305000</v>
+      </c>
+      <c r="H38" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I38" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="2">
+        <v>315000</v>
+      </c>
+      <c r="H39" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I39" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="2">
+        <v>325000</v>
+      </c>
+      <c r="H40" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I40" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="2">
+        <v>335000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I41" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="2">
+        <v>345000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I42" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="2">
+        <v>355000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I43" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="2">
+        <v>365000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I44" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="2">
+        <v>375000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>44391</v>
+      </c>
+      <c r="I45" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="2">
+        <v>395000</v>
+      </c>
+      <c r="H46" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I46" s="4">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="2">
+        <v>395000</v>
+      </c>
+      <c r="H47" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I47" s="4">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="2">
+        <v>405000</v>
+      </c>
+      <c r="H48" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I48" s="4">
+        <v>43862</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC4B9D-86D0-4438-8522-97B702A1BA8E}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="88" workbookViewId="0">
+      <selection sqref="A1:G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="67.08984375" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" style="21"/>
+    <col min="6" max="7" width="23.54296875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="21">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G2" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="21">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G3" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G4" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="21">
+        <v>20000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G5" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="21">
+        <v>25000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G6" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="21">
+        <v>30000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G7" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="21">
+        <v>35000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G8" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="21">
+        <v>40000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G9" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="21">
+        <v>45000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G10" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="21">
+        <v>50000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G11" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E12" s="21">
+        <v>55000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G12" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" s="21">
+        <v>60000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G13" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="21">
+        <v>65000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G14" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" t="s">
+        <v>382</v>
+      </c>
+      <c r="E15" s="21">
+        <v>75000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G15" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" s="21">
+        <v>85000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G16" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="21">
+        <v>95000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G17" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E18" s="21">
+        <v>105000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G18" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="21">
+        <v>115000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G19" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="21">
+        <v>125000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G20" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="21">
+        <v>135000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G21" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="21">
+        <v>145000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G22" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" s="21">
+        <v>155000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G23" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" t="s">
+        <v>389</v>
+      </c>
+      <c r="E24" s="21">
+        <v>165000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G24" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="21">
+        <v>175000</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G25" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" s="21">
+        <v>185000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G26" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>336</v>
+      </c>
+      <c r="E27" s="21">
+        <v>195000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G27" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" t="s">
+        <v>392</v>
+      </c>
+      <c r="E28" s="21">
+        <v>205000</v>
+      </c>
+      <c r="F28" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G28" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E29" s="21">
+        <v>225000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G29" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" t="s">
+        <v>394</v>
+      </c>
+      <c r="E30" s="21">
+        <v>235000</v>
+      </c>
+      <c r="F30" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G30" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>336</v>
+      </c>
+      <c r="E31" s="21">
+        <v>245000</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G31" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" s="21">
+        <v>255000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G32" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>359</v>
+      </c>
+      <c r="D33" t="s">
+        <v>396</v>
+      </c>
+      <c r="E33" s="21">
+        <v>265000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G33" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>336</v>
+      </c>
+      <c r="E34" s="21">
+        <v>275000</v>
+      </c>
+      <c r="F34" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G34" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>360</v>
+      </c>
+      <c r="D35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" s="21">
+        <v>285000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G35" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" t="s">
+        <v>398</v>
+      </c>
+      <c r="E36" s="21">
+        <v>295000</v>
+      </c>
+      <c r="F36" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G36" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>336</v>
+      </c>
+      <c r="E37" s="21">
+        <v>305000</v>
+      </c>
+      <c r="F37" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G37" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="21">
+        <v>315000</v>
+      </c>
+      <c r="F38" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G38" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>336</v>
+      </c>
+      <c r="E39" s="21">
+        <v>325000</v>
+      </c>
+      <c r="F39" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G39" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" t="s">
+        <v>400</v>
+      </c>
+      <c r="E40" s="21">
+        <v>335000</v>
+      </c>
+      <c r="F40" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G40" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>363</v>
+      </c>
+      <c r="D41" t="s">
+        <v>401</v>
+      </c>
+      <c r="E41" s="21">
+        <v>345000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G41" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>336</v>
+      </c>
+      <c r="E42" s="21">
+        <v>355000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G42" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>364</v>
+      </c>
+      <c r="D43" t="s">
+        <v>402</v>
+      </c>
+      <c r="E43" s="21">
+        <v>365000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G43" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>365</v>
+      </c>
+      <c r="D44" t="s">
+        <v>403</v>
+      </c>
+      <c r="E44" s="21">
+        <v>375000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G44" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>372</v>
+      </c>
+      <c r="D45" t="s">
+        <v>404</v>
+      </c>
+      <c r="E45" s="21">
+        <v>395000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G45" s="3">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>373</v>
+      </c>
+      <c r="D46" t="s">
+        <v>405</v>
+      </c>
+      <c r="E46" s="21">
+        <v>395000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G46" s="3">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>366</v>
+      </c>
+      <c r="D47" t="s">
+        <v>367</v>
+      </c>
+      <c r="E47" s="21">
+        <v>405000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>44391</v>
+      </c>
+      <c r="G47" s="3">
+        <v>43862</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Data Cleaning Files.xlsx
+++ b/Data Cleaning Files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C387371-DE1A-4F78-A422-2ACE7071140E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2CC7F3-5DC9-49EB-AA4C-2D4D3DECA2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{B750E666-42D8-48C9-AB1C-E34AE7232F24}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Data Assignment (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Data Assignment (2)'!$A$1:$G$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Data Assignment (2)'!$A$1:$H$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Classwork'!$B$2:$J$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="407">
   <si>
     <t>S.No.</t>
   </si>
@@ -1251,6 +1251,9 @@
   </si>
   <si>
     <t>( 2005â€“2008 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whig  </t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1269,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,6 +1306,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1328,7 +1339,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1363,6 +1374,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -1460,18 +1474,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB5803DE-58E0-42CE-885C-09D440F15EC8}" name="Table2" displayName="Table2" ref="A1:G47" totalsRowShown="0">
-  <autoFilter ref="A1:G47" xr:uid="{94CC4B9D-86D0-4438-8522-97B702A1BA8E}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{56BEA3F4-A7CD-4E6B-B595-C6EA34701397}" name="S.No."/>
-    <tableColumn id="2" xr3:uid="{3C8C9D1D-3957-4683-AC65-F691EC211A61}" name="president"/>
-    <tableColumn id="3" xr3:uid="{C23B2D12-1CE2-4F51-BDB9-FF8FDADEDF94}" name="prior"/>
-    <tableColumn id="4" xr3:uid="{46560E7C-D278-4BAD-A0BD-DEC405AE434F}" name="year "/>
-    <tableColumn id="5" xr3:uid="{5CD88EF5-6235-485F-B69D-DAB3B6165329}" name="salary" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{6F449B3F-DF66-4442-BD97-2FD2D079BB68}" name="date updated" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{3E053A7B-5B6B-4FD3-9E9D-C98A98536E09}" name="date created" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{77D97727-BDED-4A75-8FFB-EB60ACF3D6C8}" name="Table3" displayName="Table3" ref="A1:H47" totalsRowShown="0">
+  <autoFilter ref="A1:H47" xr:uid="{94CC4B9D-86D0-4438-8522-97B702A1BA8E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3A1634F1-7C04-4925-B7C8-13F2FADC7431}" name="S.No."/>
+    <tableColumn id="2" xr3:uid="{BBFEED79-9066-4BDE-B2BB-DB1BA51687E5}" name="president"/>
+    <tableColumn id="3" xr3:uid="{2FE693FC-F7C6-43BA-872B-FC822DC7894C}" name="prior"/>
+    <tableColumn id="4" xr3:uid="{72E9027C-9936-48C7-98A8-557F9D56AAE1}" name="year "/>
+    <tableColumn id="5" xr3:uid="{B499155B-DE30-4DAF-8589-8E026D954F73}" name="party"/>
+    <tableColumn id="6" xr3:uid="{3A62234F-0BE1-4309-952B-28ACBE05D8FA}" name="salary" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{CE2E2E83-A926-4534-AC6E-C3DAEFB79E3C}" name="date updated" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FF9C0830-1E23-465E-ADE1-704B8FA730D8}" name="date created" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4522,8 +4537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5744450C-A2CE-48AC-A216-0BAA36BCE033}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A33" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5930,44 +5945,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC4B9D-86D0-4438-8522-97B702A1BA8E}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="88" workbookViewId="0">
-      <selection sqref="A1:G47"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="67.08984375" customWidth="1"/>
     <col min="4" max="4" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" style="21"/>
-    <col min="6" max="7" width="23.54296875" style="3"/>
+    <col min="6" max="6" width="23.54296875" style="21"/>
+    <col min="7" max="8" width="23.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5980,17 +5998,20 @@
       <c r="D2" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="21">
         <v>5000</v>
       </c>
-      <c r="F2" s="3">
-        <v>44391</v>
-      </c>
       <c r="G2" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H2" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6003,17 +6024,20 @@
       <c r="D3" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="21">
         <v>10000</v>
       </c>
-      <c r="F3" s="3">
-        <v>44391</v>
-      </c>
       <c r="G3" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H3" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6026,17 +6050,20 @@
       <c r="D4" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="21">
         <v>15000</v>
       </c>
-      <c r="F4" s="3">
-        <v>44391</v>
-      </c>
       <c r="G4" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H4" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6049,17 +6076,20 @@
       <c r="D5" t="s">
         <v>376</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="21">
         <v>20000</v>
       </c>
-      <c r="F5" s="3">
-        <v>44391</v>
-      </c>
       <c r="G5" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H5" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6072,17 +6102,20 @@
       <c r="D6" t="s">
         <v>377</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="21">
         <v>25000</v>
       </c>
-      <c r="F6" s="3">
-        <v>44391</v>
-      </c>
       <c r="G6" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H6" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6095,17 +6128,20 @@
       <c r="D7" t="s">
         <v>378</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="21">
         <v>30000</v>
       </c>
-      <c r="F7" s="3">
-        <v>44391</v>
-      </c>
       <c r="G7" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H7" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6118,17 +6154,20 @@
       <c r="D8" t="s">
         <v>379</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="21">
         <v>35000</v>
       </c>
-      <c r="F8" s="3">
-        <v>44391</v>
-      </c>
       <c r="G8" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H8" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6141,17 +6180,20 @@
       <c r="D9" t="s">
         <v>336</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="21">
         <v>40000</v>
       </c>
-      <c r="F9" s="3">
-        <v>44391</v>
-      </c>
       <c r="G9" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H9" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6164,17 +6206,20 @@
       <c r="D10" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="21">
         <v>45000</v>
       </c>
-      <c r="F10" s="3">
-        <v>44391</v>
-      </c>
       <c r="G10" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H10" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6187,17 +6232,20 @@
       <c r="D11" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" s="21">
         <v>50000</v>
       </c>
-      <c r="F11" s="3">
-        <v>44391</v>
-      </c>
       <c r="G11" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H11" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6210,17 +6258,20 @@
       <c r="D12" t="s">
         <v>381</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="21">
         <v>55000</v>
       </c>
-      <c r="F12" s="3">
-        <v>44391</v>
-      </c>
       <c r="G12" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H12" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6233,17 +6284,20 @@
       <c r="D13" t="s">
         <v>346</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="21">
         <v>60000</v>
       </c>
-      <c r="F13" s="3">
-        <v>44391</v>
-      </c>
       <c r="G13" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H13" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6256,17 +6310,20 @@
       <c r="D14" t="s">
         <v>336</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="21">
         <v>65000</v>
       </c>
-      <c r="F14" s="3">
-        <v>44391</v>
-      </c>
       <c r="G14" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H14" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6279,17 +6336,20 @@
       <c r="D15" t="s">
         <v>382</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="21">
         <v>75000</v>
       </c>
-      <c r="F15" s="3">
-        <v>44391</v>
-      </c>
       <c r="G15" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H15" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6302,17 +6362,20 @@
       <c r="D16" t="s">
         <v>383</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="21">
         <v>85000</v>
       </c>
-      <c r="F16" s="3">
-        <v>44391</v>
-      </c>
       <c r="G16" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H16" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6325,17 +6388,20 @@
       <c r="D17" t="s">
         <v>384</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="21">
         <v>95000</v>
       </c>
-      <c r="F17" s="3">
-        <v>44391</v>
-      </c>
       <c r="G17" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H17" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6348,17 +6414,20 @@
       <c r="D18" t="s">
         <v>336</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="21">
         <v>105000</v>
       </c>
-      <c r="F18" s="3">
-        <v>44391</v>
-      </c>
       <c r="G18" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H18" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6371,17 +6440,20 @@
       <c r="D19" t="s">
         <v>385</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="21">
         <v>115000</v>
       </c>
-      <c r="F19" s="3">
-        <v>44391</v>
-      </c>
       <c r="G19" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H19" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6394,17 +6466,20 @@
       <c r="D20" t="s">
         <v>386</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="21">
         <v>125000</v>
       </c>
-      <c r="F20" s="3">
-        <v>44391</v>
-      </c>
       <c r="G20" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H20" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6417,17 +6492,20 @@
       <c r="D21" t="s">
         <v>387</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="21">
         <v>135000</v>
       </c>
-      <c r="F21" s="3">
-        <v>44391</v>
-      </c>
       <c r="G21" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H21" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6440,17 +6518,20 @@
       <c r="D22" t="s">
         <v>336</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="21">
         <v>145000</v>
       </c>
-      <c r="F22" s="3">
-        <v>44391</v>
-      </c>
       <c r="G22" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H22" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6463,17 +6544,20 @@
       <c r="D23" t="s">
         <v>388</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="21">
         <v>155000</v>
       </c>
-      <c r="F23" s="3">
-        <v>44391</v>
-      </c>
       <c r="G23" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H23" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6486,17 +6570,20 @@
       <c r="D24" t="s">
         <v>389</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="21">
         <v>165000</v>
       </c>
-      <c r="F24" s="3">
-        <v>44391</v>
-      </c>
       <c r="G24" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H24" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6509,17 +6596,20 @@
       <c r="D25" t="s">
         <v>390</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="21">
         <v>175000</v>
       </c>
-      <c r="F25" s="3">
-        <v>44391</v>
-      </c>
       <c r="G25" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H25" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6532,17 +6622,20 @@
       <c r="D26" t="s">
         <v>391</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="21">
         <v>185000</v>
       </c>
-      <c r="F26" s="3">
-        <v>44391</v>
-      </c>
       <c r="G26" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H26" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6555,17 +6648,20 @@
       <c r="D27" t="s">
         <v>336</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="21">
         <v>195000</v>
       </c>
-      <c r="F27" s="3">
-        <v>44391</v>
-      </c>
       <c r="G27" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H27" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6578,17 +6674,20 @@
       <c r="D28" t="s">
         <v>392</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="21">
         <v>205000</v>
       </c>
-      <c r="F28" s="3">
-        <v>44391</v>
-      </c>
       <c r="G28" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H28" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6601,17 +6700,20 @@
       <c r="D29" t="s">
         <v>393</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="21">
         <v>225000</v>
       </c>
-      <c r="F29" s="3">
-        <v>44391</v>
-      </c>
       <c r="G29" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H29" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6624,17 +6726,20 @@
       <c r="D30" t="s">
         <v>394</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="21">
         <v>235000</v>
       </c>
-      <c r="F30" s="3">
-        <v>44391</v>
-      </c>
       <c r="G30" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H30" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6647,17 +6752,20 @@
       <c r="D31" t="s">
         <v>336</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="21">
         <v>245000</v>
       </c>
-      <c r="F31" s="3">
-        <v>44391</v>
-      </c>
       <c r="G31" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H31" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6670,17 +6778,20 @@
       <c r="D32" t="s">
         <v>395</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="21">
         <v>255000</v>
       </c>
-      <c r="F32" s="3">
-        <v>44391</v>
-      </c>
       <c r="G32" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H32" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6693,17 +6804,20 @@
       <c r="D33" t="s">
         <v>396</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="21">
         <v>265000</v>
       </c>
-      <c r="F33" s="3">
-        <v>44391</v>
-      </c>
       <c r="G33" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H33" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6716,17 +6830,20 @@
       <c r="D34" t="s">
         <v>336</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="21">
         <v>275000</v>
       </c>
-      <c r="F34" s="3">
-        <v>44391</v>
-      </c>
       <c r="G34" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H34" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6739,17 +6856,20 @@
       <c r="D35" t="s">
         <v>397</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="21">
         <v>285000</v>
       </c>
-      <c r="F35" s="3">
-        <v>44391</v>
-      </c>
       <c r="G35" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H35" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6762,17 +6882,20 @@
       <c r="D36" t="s">
         <v>398</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="21">
         <v>295000</v>
       </c>
-      <c r="F36" s="3">
-        <v>44391</v>
-      </c>
       <c r="G36" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H36" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6785,17 +6908,20 @@
       <c r="D37" t="s">
         <v>336</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="21">
         <v>305000</v>
       </c>
-      <c r="F37" s="3">
-        <v>44391</v>
-      </c>
       <c r="G37" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H37" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6808,17 +6934,20 @@
       <c r="D38" t="s">
         <v>399</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="21">
         <v>315000</v>
       </c>
-      <c r="F38" s="3">
-        <v>44391</v>
-      </c>
       <c r="G38" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H38" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6831,17 +6960,20 @@
       <c r="D39" t="s">
         <v>336</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="21">
         <v>325000</v>
       </c>
-      <c r="F39" s="3">
-        <v>44391</v>
-      </c>
       <c r="G39" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H39" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6854,17 +6986,20 @@
       <c r="D40" t="s">
         <v>400</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="21">
         <v>335000</v>
       </c>
-      <c r="F40" s="3">
-        <v>44391</v>
-      </c>
       <c r="G40" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H40" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6877,17 +7012,20 @@
       <c r="D41" t="s">
         <v>401</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="21">
         <v>345000</v>
       </c>
-      <c r="F41" s="3">
-        <v>44391</v>
-      </c>
       <c r="G41" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H41" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6900,17 +7038,20 @@
       <c r="D42" t="s">
         <v>336</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="21">
         <v>355000</v>
       </c>
-      <c r="F42" s="3">
-        <v>44391</v>
-      </c>
       <c r="G42" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H42" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6923,17 +7064,20 @@
       <c r="D43" t="s">
         <v>402</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="21">
         <v>365000</v>
       </c>
-      <c r="F43" s="3">
-        <v>44391</v>
-      </c>
       <c r="G43" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H43" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6946,17 +7090,20 @@
       <c r="D44" t="s">
         <v>403</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="21">
         <v>375000</v>
       </c>
-      <c r="F44" s="3">
-        <v>44391</v>
-      </c>
       <c r="G44" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44391</v>
+      </c>
+      <c r="H44" s="3">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6969,17 +7116,20 @@
       <c r="D45" t="s">
         <v>404</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="21">
         <v>395000</v>
       </c>
-      <c r="F45" s="3">
-        <v>44391</v>
-      </c>
       <c r="G45" s="3">
+        <v>44391</v>
+      </c>
+      <c r="H45" s="3">
         <v>43862</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6992,17 +7142,20 @@
       <c r="D46" t="s">
         <v>405</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="21">
         <v>395000</v>
       </c>
-      <c r="F46" s="3">
-        <v>44391</v>
-      </c>
       <c r="G46" s="3">
+        <v>44391</v>
+      </c>
+      <c r="H46" s="3">
         <v>43862</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -7015,13 +7168,16 @@
       <c r="D47" t="s">
         <v>367</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="21">
         <v>405000</v>
       </c>
-      <c r="F47" s="3">
-        <v>44391</v>
-      </c>
       <c r="G47" s="3">
+        <v>44391</v>
+      </c>
+      <c r="H47" s="3">
         <v>43862</v>
       </c>
     </row>
